--- a/BalanceSheet/EXAS_bal.xlsx
+++ b/BalanceSheet/EXAS_bal.xlsx
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-11838000.0</v>
+        <v>92000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1788000.0</v>
+        <v>80000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-12791000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-7469000.0</v>
+        <v>69000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-4516000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>53673000.0</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>62773000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>39979000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-29291000.0</v>
+        <v>31000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-18296000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>12452000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>19158000.0</v>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-1886000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>-4754000.0</v>
